--- a/code/results/signal_reconstruction/execution_times.xlsx
+++ b/code/results/signal_reconstruction/execution_times.xlsx
@@ -423,16 +423,16 @@
         <v>3711073400</v>
       </c>
       <c r="C2">
-        <v>117278302.1724138</v>
+        <v>118338939.2758621</v>
       </c>
       <c r="D2">
-        <v>2.500702007887038</v>
+        <v>2.487842556667488</v>
       </c>
       <c r="E2">
-        <v>1.26537698540855</v>
+        <v>1.260517790344322</v>
       </c>
       <c r="F2">
-        <v>1.26537698540855</v>
+        <v>1.260517790344322</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -443,16 +443,16 @@
         <v>3711073400</v>
       </c>
       <c r="C3">
-        <v>117224306.1724138</v>
+        <v>117723824.8666667</v>
       </c>
       <c r="D3">
-        <v>2.496926135754488</v>
+        <v>2.49074680761321</v>
       </c>
       <c r="E3">
-        <v>1.267874239703379</v>
+        <v>1.265626611507313</v>
       </c>
       <c r="F3">
-        <v>2.533251225111929</v>
+        <v>2.526144401851635</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -463,16 +463,16 @@
         <v>91004741900</v>
       </c>
       <c r="C4">
-        <v>118073672.375</v>
+        <v>118075866.27</v>
       </c>
       <c r="D4">
-        <v>2.391374320333111</v>
+        <v>2.387410944463444</v>
       </c>
       <c r="E4">
-        <v>32.23022890470462</v>
+        <v>32.28313493547573</v>
       </c>
       <c r="F4">
-        <v>34.76348012981654</v>
+        <v>34.80927933732737</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -483,16 +483,16 @@
         <v>91004741900</v>
       </c>
       <c r="C5">
-        <v>118051444.6675</v>
+        <v>118091567.1275</v>
       </c>
       <c r="D5">
-        <v>2.380830334555634</v>
+        <v>2.381252895741406</v>
       </c>
       <c r="E5">
-        <v>32.37906240432937</v>
+        <v>32.36231756547575</v>
       </c>
       <c r="F5">
-        <v>67.14254253414592</v>
+        <v>67.17159690280312</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -503,16 +503,16 @@
         <v>38410061400</v>
       </c>
       <c r="C6">
-        <v>118152532.3525</v>
+        <v>118166435.175</v>
       </c>
       <c r="D6">
-        <v>2.361521188137244</v>
+        <v>2.365426027882202</v>
       </c>
       <c r="E6">
-        <v>13.76607466015003</v>
+        <v>13.74173268829829</v>
       </c>
       <c r="F6">
-        <v>80.90861719429596</v>
+        <v>80.9133295911014</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -523,16 +523,16 @@
         <v>39220461400</v>
       </c>
       <c r="C7">
-        <v>118000235.215</v>
+        <v>118066228.4025</v>
       </c>
       <c r="D7">
-        <v>2.305016029624191</v>
+        <v>2.294032299898257</v>
       </c>
       <c r="E7">
-        <v>14.41968839750336</v>
+        <v>14.48063077259742</v>
       </c>
       <c r="F7">
-        <v>95.32830559179931</v>
+        <v>95.39396036369882</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -543,16 +543,16 @@
         <v>39019669400</v>
       </c>
       <c r="C8">
-        <v>117982035.565</v>
+        <v>118033938.22</v>
       </c>
       <c r="D8">
-        <v>2.297336054357811</v>
+        <v>2.300343855353062</v>
       </c>
       <c r="E8">
-        <v>14.39604422496456</v>
+        <v>14.37089871702059</v>
       </c>
       <c r="F8">
-        <v>109.7243498167639</v>
+        <v>109.7648590807194</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -563,16 +563,16 @@
         <v>205000000000</v>
       </c>
       <c r="C9">
-        <v>118055875.61</v>
+        <v>118070018.7425</v>
       </c>
       <c r="D9">
-        <v>2.071295794398285</v>
+        <v>2.078483567790478</v>
       </c>
       <c r="E9">
-        <v>83.83476108466375</v>
+        <v>83.53483776515513</v>
       </c>
       <c r="F9">
-        <v>193.5591109014276</v>
+        <v>193.2996968458745</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -583,16 +583,16 @@
         <v>206000000000</v>
       </c>
       <c r="C10">
-        <v>118075410.5825</v>
+        <v>118075682.8225</v>
       </c>
       <c r="D10">
-        <v>2.112322556318645</v>
+        <v>2.1169956413529</v>
       </c>
       <c r="E10">
-        <v>82.59381361225172</v>
+        <v>82.41130489106892</v>
       </c>
       <c r="F10">
-        <v>276.1529245136794</v>
+        <v>275.7110017369434</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -603,16 +603,16 @@
         <v>206000000000</v>
       </c>
       <c r="C11">
-        <v>118034318.075</v>
+        <v>117977392.25</v>
       </c>
       <c r="D11">
-        <v>2.080901063040263</v>
+        <v>2.068225692092291</v>
       </c>
       <c r="E11">
-        <v>83.87016414736496</v>
+        <v>84.42488918090511</v>
       </c>
       <c r="F11">
-        <v>360.0230886610443</v>
+        <v>360.1358909178485</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -623,16 +623,16 @@
         <v>55372061400</v>
       </c>
       <c r="C12">
-        <v>118062387.3575</v>
+        <v>118148119.3325</v>
       </c>
       <c r="D12">
-        <v>2.057360566913606</v>
+        <v>2.066854092554542</v>
       </c>
       <c r="E12">
-        <v>22.7965286332705</v>
+        <v>22.67535315631811</v>
       </c>
       <c r="F12">
-        <v>382.8196172943148</v>
+        <v>382.8112440741667</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -643,16 +643,16 @@
         <v>56182461400</v>
       </c>
       <c r="C13">
-        <v>118151584.1575</v>
+        <v>118106334.5425</v>
       </c>
       <c r="D13">
-        <v>2.073201336225596</v>
+        <v>2.09851492523725</v>
       </c>
       <c r="E13">
-        <v>22.93610842903041</v>
+        <v>22.66812028049555</v>
       </c>
       <c r="F13">
-        <v>405.7557257233452</v>
+        <v>405.4793643546622</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -663,16 +663,16 @@
         <v>55981669400</v>
       </c>
       <c r="C14">
-        <v>118077293.7025</v>
+        <v>118076243.5325</v>
       </c>
       <c r="D14">
-        <v>2.060182168769926</v>
+        <v>2.105226826843285</v>
       </c>
       <c r="E14">
-        <v>23.01303142688526</v>
+        <v>22.5208315152537</v>
       </c>
       <c r="F14">
-        <v>428.7687571502305</v>
+        <v>428.0001958699159</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -683,16 +683,16 @@
         <v>136000000000</v>
       </c>
       <c r="C15">
-        <v>118058253.3825</v>
+        <v>118072455.6907731</v>
       </c>
       <c r="D15">
-        <v>2.282758156300559</v>
+        <v>2.279505060492302</v>
       </c>
       <c r="E15">
-        <v>50.4641138488258</v>
+        <v>50.53005277593896</v>
       </c>
       <c r="F15">
-        <v>479.2328709990563</v>
+        <v>478.5302486458548</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -703,16 +703,16 @@
         <v>137000000000</v>
       </c>
       <c r="C16">
-        <v>118072003.4425</v>
+        <v>118033307.3875</v>
       </c>
       <c r="D16">
-        <v>2.306140221759708</v>
+        <v>2.295387219711106</v>
       </c>
       <c r="E16">
-        <v>50.3138932855817</v>
+        <v>50.56616661698777</v>
       </c>
       <c r="F16">
-        <v>529.546764284638</v>
+        <v>529.0964152628426</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -723,16 +723,16 @@
         <v>133000000000</v>
       </c>
       <c r="C17">
-        <v>117901678.6275</v>
+        <v>118125114.985</v>
       </c>
       <c r="D17">
-        <v>2.307658010108598</v>
+        <v>2.276925417356452</v>
       </c>
       <c r="E17">
-        <v>48.88326492047084</v>
+        <v>49.44935048586963</v>
       </c>
       <c r="F17">
-        <v>578.4300292051089</v>
+        <v>578.5457657487123</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -743,16 +743,16 @@
         <v>38384061400</v>
       </c>
       <c r="C18">
-        <v>118065197.995</v>
+        <v>118090900.7775</v>
       </c>
       <c r="D18">
-        <v>2.221177915431149</v>
+        <v>2.227327930608984</v>
       </c>
       <c r="E18">
-        <v>14.63678450454553</v>
+        <v>14.59319302190979</v>
       </c>
       <c r="F18">
-        <v>593.0668137096544</v>
+        <v>593.138958770622</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -763,16 +763,16 @@
         <v>39194461400</v>
       </c>
       <c r="C19">
-        <v>118065550.24</v>
+        <v>118096560.6225</v>
       </c>
       <c r="D19">
-        <v>2.121278102299047</v>
+        <v>2.082177426834825</v>
       </c>
       <c r="E19">
-        <v>15.64962360317707</v>
+        <v>15.93931734344292</v>
       </c>
       <c r="F19">
-        <v>608.7164373128314</v>
+        <v>609.0782761140649</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -783,16 +783,16 @@
         <v>38993669400</v>
       </c>
       <c r="C20">
-        <v>117983996.225</v>
+        <v>118096630.625</v>
       </c>
       <c r="D20">
-        <v>2.060972819599881</v>
+        <v>2.073989146208124</v>
       </c>
       <c r="E20">
-        <v>16.03609937819937</v>
+        <v>15.92025863796721</v>
       </c>
       <c r="F20">
-        <v>624.7525366910309</v>
+        <v>624.9985347520321</v>
       </c>
     </row>
   </sheetData>

--- a/code/results/signal_reconstruction/execution_times.xlsx
+++ b/code/results/signal_reconstruction/execution_times.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -400,122 +400,122 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>359961078000</v>
+        <v>111478000000</v>
       </c>
       <c r="C2" t="n">
-        <v>118190713.8975</v>
+        <v>117906962.6683292</v>
       </c>
       <c r="D2" t="n">
-        <v>2.684113465526756</v>
+        <v>2.144322488314476</v>
       </c>
       <c r="E2" t="n">
-        <v>113.4674557885769</v>
+        <v>44.09198148878149</v>
       </c>
       <c r="F2" t="n">
-        <v>113.4674557885769</v>
+        <v>44.09198148878149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>359961078000</v>
+        <v>111478000000</v>
       </c>
       <c r="C3" t="n">
-        <v>118166917.225</v>
+        <v>118002393.319202</v>
       </c>
       <c r="D3" t="n">
-        <v>2.672089081149337</v>
+        <v>2.164041425356085</v>
       </c>
       <c r="E3" t="n">
-        <v>114.0010117518955</v>
+        <v>43.65487839295053</v>
       </c>
       <c r="F3" t="n">
-        <v>227.4684675404724</v>
+        <v>87.74685988173201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>8825151388625</v>
+        <v>107544000000</v>
       </c>
       <c r="C4" t="n">
-        <v>118177391.055</v>
+        <v>118050381.8029925</v>
       </c>
       <c r="D4" t="n">
-        <v>2.330192913988424</v>
+        <v>1.893541085346338</v>
       </c>
       <c r="E4" t="n">
-        <v>3204.762785277704</v>
+        <v>48.11096377001047</v>
       </c>
       <c r="F4" t="n">
-        <v>3432.231252818176</v>
+        <v>135.8578236517425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>8825151388625</v>
+        <v>107544000000</v>
       </c>
       <c r="C5" t="n">
-        <v>118124054.65</v>
+        <v>118031935.7032419</v>
       </c>
       <c r="D5" t="n">
-        <v>2.332184024678669</v>
+        <v>1.898704885206921</v>
       </c>
       <c r="E5" t="n">
-        <v>3203.47251433013</v>
+        <v>47.98761747476763</v>
       </c>
       <c r="F5" t="n">
-        <v>6635.703767148307</v>
+        <v>183.8454411265101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>16666873436300</v>
+        <v>122443000000</v>
       </c>
       <c r="C6" t="n">
-        <v>118028924.0224439</v>
+        <v>117954870.4378109</v>
       </c>
       <c r="D6" t="n">
-        <v>2.089924751506871</v>
+        <v>1.88122482540276</v>
       </c>
       <c r="E6" t="n">
-        <v>6756.706277911994</v>
+        <v>55.17945194383403</v>
       </c>
       <c r="F6" t="n">
-        <v>13392.4100450603</v>
+        <v>239.0248930703441</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>16733969930100</v>
+        <v>122443000000</v>
       </c>
       <c r="C7" t="n">
-        <v>118090012.07</v>
+        <v>117979570.7281795</v>
       </c>
       <c r="D7" t="n">
-        <v>1.93233505617932</v>
+        <v>1.861186286886721</v>
       </c>
       <c r="E7" t="n">
-        <v>7333.366400393775</v>
+        <v>55.7618669865545</v>
       </c>
       <c r="F7" t="n">
-        <v>20725.77644545407</v>
+        <v>294.7867600568986</v>
       </c>
     </row>
     <row r="8">
@@ -523,19 +523,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>16700392715350</v>
+        <v>98866377370</v>
       </c>
       <c r="C8" t="n">
-        <v>117969593.715</v>
+        <v>118103168.2967581</v>
       </c>
       <c r="D8" t="n">
-        <v>1.802403103241034</v>
+        <v>2.188624724064947</v>
       </c>
       <c r="E8" t="n">
-        <v>7854.249149538151</v>
+        <v>38.24862011211611</v>
       </c>
       <c r="F8" t="n">
-        <v>28580.02559499222</v>
+        <v>333.0353801690147</v>
       </c>
     </row>
     <row r="9">
@@ -543,19 +543,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>3160829731300</v>
+        <v>94519776767</v>
       </c>
       <c r="C9" t="n">
-        <v>117998143.585</v>
+        <v>118015083.1371571</v>
       </c>
       <c r="D9" t="n">
-        <v>1.848522481036963</v>
+        <v>1.879312442730859</v>
       </c>
       <c r="E9" t="n">
-        <v>1449.109455614554</v>
+        <v>42.61732450218307</v>
       </c>
       <c r="F9" t="n">
-        <v>30029.13505060678</v>
+        <v>375.6527046711978</v>
       </c>
     </row>
     <row r="10">
@@ -563,219 +563,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>3227926225100</v>
+        <v>96173861466</v>
       </c>
       <c r="C10" t="n">
-        <v>118103343.615</v>
+        <v>118088479</v>
       </c>
       <c r="D10" t="n">
-        <v>1.595396335151421</v>
+        <v>1.833104773380641</v>
       </c>
       <c r="E10" t="n">
-        <v>1713.13984856563</v>
+        <v>44.4285599227461</v>
       </c>
       <c r="F10" t="n">
-        <v>31742.27489917241</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3194349010350</v>
-      </c>
-      <c r="C11" t="n">
-        <v>118053060.76</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.496264619170726</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1808.40919529273</v>
-      </c>
-      <c r="F11" t="n">
-        <v>33550.68409446513</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3162107210300</v>
-      </c>
-      <c r="C12" t="n">
-        <v>118141074.035</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.883631231836211</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1420.953260832137</v>
-      </c>
-      <c r="F12" t="n">
-        <v>34971.63735529727</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3229203704100</v>
-      </c>
-      <c r="C13" t="n">
-        <v>118200470.085</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.62770466753766</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1678.419936083952</v>
-      </c>
-      <c r="F13" t="n">
-        <v>36650.05729138122</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3195626489350</v>
-      </c>
-      <c r="C14" t="n">
-        <v>118052592.81</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.496520620892579</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1808.830102912179</v>
-      </c>
-      <c r="F14" t="n">
-        <v>38458.8873942934</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B15" t="n">
-        <v>10997916142300</v>
-      </c>
-      <c r="C15" t="n">
-        <v>118098643.4075</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.096290445380153</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4442.362967564396</v>
-      </c>
-      <c r="F15" t="n">
-        <v>42901.2503618578</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B16" t="n">
-        <v>12261433533100</v>
-      </c>
-      <c r="C16" t="n">
-        <v>118164624.79</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.840403104516133</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5638.204330112224</v>
-      </c>
-      <c r="F16" t="n">
-        <v>48539.45469197002</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B17" t="n">
-        <v>11031435421350</v>
-      </c>
-      <c r="C17" t="n">
-        <v>118142730.435</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.78590320530626</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5228.379539669293</v>
-      </c>
-      <c r="F17" t="n">
-        <v>53767.83423163932</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4725164580300</v>
-      </c>
-      <c r="C18" t="n">
-        <v>118099195.2225</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.893587668897123</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2112.927448197715</v>
-      </c>
-      <c r="F18" t="n">
-        <v>55880.76167983703</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4792261074100</v>
-      </c>
-      <c r="C19" t="n">
-        <v>118183555.82</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.712753653061477</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2367.491969646262</v>
-      </c>
-      <c r="F19" t="n">
-        <v>58248.25364948329</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4758683859350</v>
-      </c>
-      <c r="C20" t="n">
-        <v>118093086.7725</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.559835976045428</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2583.351170194926</v>
-      </c>
-      <c r="F20" t="n">
-        <v>60831.60481967821</v>
+        <v>420.0812645939439</v>
       </c>
     </row>
   </sheetData>

--- a/code/results/signal_reconstruction/execution_times.xlsx
+++ b/code/results/signal_reconstruction/execution_times.xlsx
@@ -403,19 +403,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>111478000000</v>
+        <v>9285520000000</v>
       </c>
       <c r="C2" t="n">
-        <v>117906962.6683292</v>
+        <v>118055107.1820449</v>
       </c>
       <c r="D2" t="n">
-        <v>2.144322488314476</v>
+        <v>2.086868822678343</v>
       </c>
       <c r="E2" t="n">
-        <v>44.09198148878149</v>
+        <v>3769.001402636258</v>
       </c>
       <c r="F2" t="n">
-        <v>44.09198148878149</v>
+        <v>3769.001402636258</v>
       </c>
     </row>
     <row r="3">
@@ -423,19 +423,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>111478000000</v>
+        <v>9285520000000</v>
       </c>
       <c r="C3" t="n">
-        <v>118002393.319202</v>
+        <v>118035702.6683292</v>
       </c>
       <c r="D3" t="n">
-        <v>2.164041425356085</v>
+        <v>2.083833551784116</v>
       </c>
       <c r="E3" t="n">
-        <v>43.65487839295053</v>
+        <v>3775.111764408799</v>
       </c>
       <c r="F3" t="n">
-        <v>87.74685988173201</v>
+        <v>7544.113167045056</v>
       </c>
     </row>
     <row r="4">
@@ -443,19 +443,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>107544000000</v>
+        <v>8919010000000</v>
       </c>
       <c r="C4" t="n">
-        <v>118050381.8029925</v>
+        <v>118032469.7456359</v>
       </c>
       <c r="D4" t="n">
-        <v>1.893541085346338</v>
+        <v>1.904062509730511</v>
       </c>
       <c r="E4" t="n">
-        <v>48.11096377001047</v>
+        <v>3968.569170778493</v>
       </c>
       <c r="F4" t="n">
-        <v>135.8578236517425</v>
+        <v>11512.68233782355</v>
       </c>
     </row>
     <row r="5">
@@ -463,19 +463,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>107544000000</v>
+        <v>8919010000000</v>
       </c>
       <c r="C5" t="n">
-        <v>118031935.7032419</v>
+        <v>118041461.8802993</v>
       </c>
       <c r="D5" t="n">
-        <v>1.898704885206921</v>
+        <v>1.900953431346346</v>
       </c>
       <c r="E5" t="n">
-        <v>47.98761747476763</v>
+        <v>3974.757098628297</v>
       </c>
       <c r="F5" t="n">
-        <v>183.8454411265101</v>
+        <v>15487.43943645185</v>
       </c>
     </row>
     <row r="6">
@@ -483,19 +483,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>122443000000</v>
+        <v>10325700000000</v>
       </c>
       <c r="C6" t="n">
-        <v>117954870.4378109</v>
+        <v>118039409.563591</v>
       </c>
       <c r="D6" t="n">
-        <v>1.88122482540276</v>
+        <v>1.828997671118578</v>
       </c>
       <c r="E6" t="n">
-        <v>55.17945194383403</v>
+        <v>4782.768079341661</v>
       </c>
       <c r="F6" t="n">
-        <v>239.0248930703441</v>
+        <v>20270.20751579351</v>
       </c>
     </row>
     <row r="7">
@@ -503,19 +503,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>122443000000</v>
+        <v>10325700000000</v>
       </c>
       <c r="C7" t="n">
-        <v>117979570.7281795</v>
+        <v>118087151.5187032</v>
       </c>
       <c r="D7" t="n">
-        <v>1.861186286886721</v>
+        <v>1.83194526512898</v>
       </c>
       <c r="E7" t="n">
-        <v>55.7618669865545</v>
+        <v>4773.142086607187</v>
       </c>
       <c r="F7" t="n">
-        <v>294.7867600568986</v>
+        <v>25043.34960240069</v>
       </c>
     </row>
     <row r="8">
@@ -523,19 +523,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>98866377370</v>
+        <v>8219280000000</v>
       </c>
       <c r="C8" t="n">
-        <v>118103168.2967581</v>
+        <v>118066475.638404</v>
       </c>
       <c r="D8" t="n">
-        <v>2.188624724064947</v>
+        <v>2.079387492158941</v>
       </c>
       <c r="E8" t="n">
-        <v>38.24862011211611</v>
+        <v>3347.894383041525</v>
       </c>
       <c r="F8" t="n">
-        <v>333.0353801690147</v>
+        <v>28391.24398544222</v>
       </c>
     </row>
     <row r="9">
@@ -543,19 +543,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>94519776767</v>
+        <v>7819060000000</v>
       </c>
       <c r="C9" t="n">
-        <v>118015083.1371571</v>
+        <v>118100776.9376559</v>
       </c>
       <c r="D9" t="n">
-        <v>1.879312442730859</v>
+        <v>1.878180692744194</v>
       </c>
       <c r="E9" t="n">
-        <v>42.61732450218307</v>
+        <v>3525.043001567986</v>
       </c>
       <c r="F9" t="n">
-        <v>375.6527046711978</v>
+        <v>31916.2869870102</v>
       </c>
     </row>
     <row r="10">
@@ -563,19 +563,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>96173861466</v>
+        <v>7953930000000</v>
       </c>
       <c r="C10" t="n">
-        <v>118088479</v>
+        <v>118066665.9276808</v>
       </c>
       <c r="D10" t="n">
-        <v>1.833104773380641</v>
+        <v>1.783929705295721</v>
       </c>
       <c r="E10" t="n">
-        <v>44.4285599227461</v>
+        <v>3776.389034533244</v>
       </c>
       <c r="F10" t="n">
-        <v>420.0812645939439</v>
+        <v>35692.67602154345</v>
       </c>
     </row>
   </sheetData>

--- a/code/results/signal_reconstruction/execution_times.xlsx
+++ b/code/results/signal_reconstruction/execution_times.xlsx
@@ -406,16 +406,16 @@
         <v>9285520000000</v>
       </c>
       <c r="C2" t="n">
-        <v>118055107.1820449</v>
+        <v>117868605.5867971</v>
       </c>
       <c r="D2" t="n">
-        <v>2.086868822678343</v>
+        <v>1.832837670377314</v>
       </c>
       <c r="E2" t="n">
-        <v>3769.001402636258</v>
+        <v>4298.174879869647</v>
       </c>
       <c r="F2" t="n">
-        <v>3769.001402636258</v>
+        <v>4298.174879869647</v>
       </c>
     </row>
     <row r="3">
@@ -426,16 +426,16 @@
         <v>9285520000000</v>
       </c>
       <c r="C3" t="n">
-        <v>118035702.6683292</v>
+        <v>117853749.5525672</v>
       </c>
       <c r="D3" t="n">
-        <v>2.083833551784116</v>
+        <v>1.672161674023858</v>
       </c>
       <c r="E3" t="n">
-        <v>3775.111764408799</v>
+        <v>4711.77518178011</v>
       </c>
       <c r="F3" t="n">
-        <v>7544.113167045056</v>
+        <v>9009.950061649757</v>
       </c>
     </row>
     <row r="4">
@@ -446,16 +446,16 @@
         <v>8919010000000</v>
       </c>
       <c r="C4" t="n">
-        <v>118032469.7456359</v>
+        <v>117601884.879902</v>
       </c>
       <c r="D4" t="n">
-        <v>1.904062509730511</v>
+        <v>1.521127160740514</v>
       </c>
       <c r="E4" t="n">
-        <v>3968.569170778493</v>
+        <v>4985.822892365274</v>
       </c>
       <c r="F4" t="n">
-        <v>11512.68233782355</v>
+        <v>13995.77295401503</v>
       </c>
     </row>
     <row r="5">
@@ -466,16 +466,16 @@
         <v>8919010000000</v>
       </c>
       <c r="C5" t="n">
-        <v>118041461.8802993</v>
+        <v>117822492.0244499</v>
       </c>
       <c r="D5" t="n">
-        <v>1.900953431346346</v>
+        <v>1.634850098626581</v>
       </c>
       <c r="E5" t="n">
-        <v>3974.757098628297</v>
+        <v>4630.314699945834</v>
       </c>
       <c r="F5" t="n">
-        <v>15487.43943645185</v>
+        <v>18626.08765396087</v>
       </c>
     </row>
     <row r="6">
@@ -486,16 +486,16 @@
         <v>10325700000000</v>
       </c>
       <c r="C6" t="n">
-        <v>118039409.563591</v>
+        <v>117790726.6878049</v>
       </c>
       <c r="D6" t="n">
-        <v>1.828997671118578</v>
+        <v>1.633760465320453</v>
       </c>
       <c r="E6" t="n">
-        <v>4782.768079341661</v>
+        <v>5365.621325087924</v>
       </c>
       <c r="F6" t="n">
-        <v>20270.20751579351</v>
+        <v>23991.70897904879</v>
       </c>
     </row>
     <row r="7">
@@ -506,16 +506,16 @@
         <v>10325700000000</v>
       </c>
       <c r="C7" t="n">
-        <v>118087151.5187032</v>
+        <v>117776698.0440098</v>
       </c>
       <c r="D7" t="n">
-        <v>1.83194526512898</v>
+        <v>1.470056583249274</v>
       </c>
       <c r="E7" t="n">
-        <v>4773.142086607187</v>
+        <v>5963.841288213086</v>
       </c>
       <c r="F7" t="n">
-        <v>25043.34960240069</v>
+        <v>29955.55026726187</v>
       </c>
     </row>
     <row r="8">
@@ -526,16 +526,16 @@
         <v>8219280000000</v>
       </c>
       <c r="C8" t="n">
-        <v>118066475.638404</v>
+        <v>117826938.0808824</v>
       </c>
       <c r="D8" t="n">
-        <v>2.079387492158941</v>
+        <v>1.676471650687426</v>
       </c>
       <c r="E8" t="n">
-        <v>3347.894383041525</v>
+        <v>4160.954526898982</v>
       </c>
       <c r="F8" t="n">
-        <v>28391.24398544222</v>
+        <v>34116.50479416086</v>
       </c>
     </row>
     <row r="9">
@@ -546,16 +546,16 @@
         <v>7819060000000</v>
       </c>
       <c r="C9" t="n">
-        <v>118100776.9376559</v>
+        <v>117601998.8365854</v>
       </c>
       <c r="D9" t="n">
-        <v>1.878180692744194</v>
+        <v>1.669251038708748</v>
       </c>
       <c r="E9" t="n">
-        <v>3525.043001567986</v>
+        <v>3983.072277252608</v>
       </c>
       <c r="F9" t="n">
-        <v>31916.2869870102</v>
+        <v>38099.57707141346</v>
       </c>
     </row>
     <row r="10">
@@ -566,16 +566,16 @@
         <v>7953930000000</v>
       </c>
       <c r="C10" t="n">
-        <v>118066665.9276808</v>
+        <v>117994946.7188264</v>
       </c>
       <c r="D10" t="n">
-        <v>1.783929705295721</v>
+        <v>1.432430522853284</v>
       </c>
       <c r="E10" t="n">
-        <v>3776.389034533244</v>
+        <v>4705.922704065689</v>
       </c>
       <c r="F10" t="n">
-        <v>35692.67602154345</v>
+        <v>42805.49977547915</v>
       </c>
     </row>
   </sheetData>

--- a/code/results/signal_reconstruction/execution_times.xlsx
+++ b/code/results/signal_reconstruction/execution_times.xlsx
@@ -406,16 +406,16 @@
         <v>9285520000000</v>
       </c>
       <c r="C2" t="n">
-        <v>117868605.5867971</v>
+        <v>114411558.4127764</v>
       </c>
       <c r="D2" t="n">
-        <v>1.832837670377314</v>
+        <v>1.828924479393044</v>
       </c>
       <c r="E2" t="n">
-        <v>4298.174879869647</v>
+        <v>4437.522373534417</v>
       </c>
       <c r="F2" t="n">
-        <v>4298.174879869647</v>
+        <v>4437.522373534417</v>
       </c>
     </row>
     <row r="3">
@@ -426,16 +426,16 @@
         <v>9285520000000</v>
       </c>
       <c r="C3" t="n">
-        <v>117853749.5525672</v>
+        <v>117787547.8801956</v>
       </c>
       <c r="D3" t="n">
-        <v>1.672161674023858</v>
+        <v>1.685920957457729</v>
       </c>
       <c r="E3" t="n">
-        <v>4711.77518178011</v>
+        <v>4675.947643638125</v>
       </c>
       <c r="F3" t="n">
-        <v>9009.950061649757</v>
+        <v>9113.470017172542</v>
       </c>
     </row>
     <row r="4">
@@ -446,16 +446,16 @@
         <v>8919010000000</v>
       </c>
       <c r="C4" t="n">
-        <v>117601884.879902</v>
+        <v>117794031.8995098</v>
       </c>
       <c r="D4" t="n">
-        <v>1.521127160740514</v>
+        <v>1.52173442213647</v>
       </c>
       <c r="E4" t="n">
-        <v>4985.822892365274</v>
+        <v>4975.703568426338</v>
       </c>
       <c r="F4" t="n">
-        <v>13995.77295401503</v>
+        <v>14089.17358559888</v>
       </c>
     </row>
     <row r="5">
@@ -466,16 +466,16 @@
         <v>8919010000000</v>
       </c>
       <c r="C5" t="n">
-        <v>117822492.0244499</v>
+        <v>117884199.2298288</v>
       </c>
       <c r="D5" t="n">
-        <v>1.634850098626581</v>
+        <v>1.631068728650424</v>
       </c>
       <c r="E5" t="n">
-        <v>4630.314699945834</v>
+        <v>4638.619952659808</v>
       </c>
       <c r="F5" t="n">
-        <v>18626.08765396087</v>
+        <v>18727.79353825869</v>
       </c>
     </row>
     <row r="6">
@@ -486,16 +486,16 @@
         <v>10325700000000</v>
       </c>
       <c r="C6" t="n">
-        <v>117790726.6878049</v>
+        <v>117830475.4317073</v>
       </c>
       <c r="D6" t="n">
-        <v>1.633760465320453</v>
+        <v>1.655318423829817</v>
       </c>
       <c r="E6" t="n">
-        <v>5365.621325087924</v>
+        <v>5293.955960996308</v>
       </c>
       <c r="F6" t="n">
-        <v>23991.70897904879</v>
+        <v>24021.74949925499</v>
       </c>
     </row>
     <row r="7">
@@ -506,16 +506,16 @@
         <v>10325700000000</v>
       </c>
       <c r="C7" t="n">
-        <v>117776698.0440098</v>
+        <v>117716727.8386308</v>
       </c>
       <c r="D7" t="n">
-        <v>1.470056583249274</v>
+        <v>1.503755554560929</v>
       </c>
       <c r="E7" t="n">
-        <v>5963.841288213086</v>
+        <v>5833.162523811434</v>
       </c>
       <c r="F7" t="n">
-        <v>29955.55026726187</v>
+        <v>29854.91202306643</v>
       </c>
     </row>
     <row r="8">
@@ -526,16 +526,16 @@
         <v>8219280000000</v>
       </c>
       <c r="C8" t="n">
-        <v>117826938.0808824</v>
+        <v>116962833.3325183</v>
       </c>
       <c r="D8" t="n">
-        <v>1.676471650687426</v>
+        <v>1.664747774119225</v>
       </c>
       <c r="E8" t="n">
-        <v>4160.954526898982</v>
+        <v>4221.214802572466</v>
       </c>
       <c r="F8" t="n">
-        <v>34116.50479416086</v>
+        <v>34076.12682563889</v>
       </c>
     </row>
     <row r="9">
@@ -546,16 +546,16 @@
         <v>7819060000000</v>
       </c>
       <c r="C9" t="n">
-        <v>117601998.8365854</v>
+        <v>117840207.3609756</v>
       </c>
       <c r="D9" t="n">
-        <v>1.669251038708748</v>
+        <v>1.664587833628723</v>
       </c>
       <c r="E9" t="n">
-        <v>3983.072277252608</v>
+        <v>3986.156372545263</v>
       </c>
       <c r="F9" t="n">
-        <v>38099.57707141346</v>
+        <v>38062.28319818416</v>
       </c>
     </row>
     <row r="10">
@@ -566,16 +566,16 @@
         <v>7953930000000</v>
       </c>
       <c r="C10" t="n">
-        <v>117994946.7188264</v>
+        <v>118333141.7188264</v>
       </c>
       <c r="D10" t="n">
-        <v>1.432430522853284</v>
+        <v>1.443363636114659</v>
       </c>
       <c r="E10" t="n">
-        <v>4705.922704065689</v>
+        <v>4656.928927635208</v>
       </c>
       <c r="F10" t="n">
-        <v>42805.49977547915</v>
+        <v>42719.21212581937</v>
       </c>
     </row>
   </sheetData>
